--- a/일일보고.xlsx
+++ b/일일보고.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9105" yWindow="3105" windowWidth="28830" windowHeight="15075" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="일일업무" sheetId="1" state="visible" r:id="rId1"/>
@@ -5500,8 +5500,8 @@
   </sheetPr>
   <dimension ref="A2:U57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:L46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.625" defaultRowHeight="16.5" outlineLevelCol="0"/>
@@ -6126,13 +6126,12 @@
       </c>
       <c r="D29" s="131" t="inlineStr">
         <is>
-          <t>방태훈 
+          <t xml:space="preserve">방태훈 
 주간-
-5EV4G012 7F TOXIC 11/16 설계 (100%),
-5EV4G013 7F TOXIC 11/16 설계 (100%),
-24년 예상 기성금액 정리
-연장-없음
-•</t>
+5EV4G005 12/22 설계 (5%),
+5EV4G004 12/01 설계 (100%),
+야간-없음
+</t>
         </is>
       </c>
       <c r="E29" s="132" t="n"/>
@@ -6158,11 +6157,10 @@
       </c>
       <c r="D30" s="131" t="inlineStr">
         <is>
-          <t>김병훈 
-주간-
-5ES3F701 7F TOXIC 11/16 REV (90%)
-연장-없음
-•</t>
+          <t xml:space="preserve">김병훈 
+주간-연차
+야간-없음
+</t>
         </is>
       </c>
       <c r="E30" s="132" t="n"/>
@@ -6188,11 +6186,15 @@
       </c>
       <c r="D31" s="131" t="inlineStr">
         <is>
-          <t>민병우
+          <t xml:space="preserve">민병우
 주간-
-5ES3F601 7F TOXIC 11/17 설계 (45%)
-연장-없음
-•</t>
+5EV4G018 3차 PCW 12/22 REV (100%),
+5ES3F702 5F VAC 12/22 REV (100%),
+5ES3F702 7F TOXIC 12/22 REV (100%)
+연장-
+5EV4G019 6F GAS,PCW 12/22 REV (100%),
+5ES3F601 7F EXH 12/22 REV (100%)
+</t>
         </is>
       </c>
       <c r="E31" s="132" t="n"/>
@@ -6218,12 +6220,11 @@
       </c>
       <c r="D32" s="131" t="inlineStr">
         <is>
-          <t>권동현 
+          <t xml:space="preserve">권동현 
 주간-
-5MMME001 7F PCW 11/17 REV (100%),
-정산장비 캡처
-연장-없음
-•</t>
+5EPLF802 설계 12/08 (78%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E32" s="132" t="n"/>
@@ -6249,13 +6250,13 @@
       </c>
       <c r="D33" s="131" t="inlineStr">
         <is>
-          <t>한예지 
-주간-사무업무,
-H-VAC 11/16 도면작업 (100%),
-5EV4G018 7F EXH 도면작업 (100%)
-5ES3F608 7F GAS 11/17 도면 REV (100%)
-연장-없음
-•</t>
+          <t xml:space="preserve">한예지 
+주간-사무업무, QC확인,
+5EV4G004 5F EXH 12/22 도면작업 (100%),
+5EV4G004 5F DR 12/22 도면작업 (100%),
+5EV4G004 5F BYP 12/22 도면작업 (50%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E33" s="132" t="n"/>
@@ -6281,14 +6282,12 @@
       </c>
       <c r="D34" s="131" t="inlineStr">
         <is>
-          <t>김성호
+          <t xml:space="preserve">김성호
 주간-
-5ES3F701 7F PCW 11/16 도면REV (100%),
-5EV4G018 5F DR 11/17 도면작업 (100%),
-5EV4G018 5F BYP 11/17 도면작업 (100%)
-연장-
-5MOCD401 7F GAS 11/17 도면작업 (100%)
-•</t>
+5EV4G004 5F VAC 12/22 도면작업 (100%),
+5EV4G004 7F EXH 12/21 도면작업 (100%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E34" s="132" t="n"/>
@@ -6314,13 +6313,12 @@
       </c>
       <c r="D35" s="131" t="inlineStr">
         <is>
-          <t>김호준
+          <t xml:space="preserve">김호준
 주간-
-BOM 추출 및  검토,
-5ES3F608 5F VAC 11/17 도면REV (100%),
-5EV4G013 3차 TRAY 11/17 도면REV (100%)
-연장-없음
-•</t>
+5EV4G004 6F PCW 12/22 도면작업 (100%),
+5EV4G004 3차 TRAY 12/22 도면작업  (100%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E35" s="132" t="n"/>
@@ -6346,11 +6344,13 @@
       </c>
       <c r="D36" s="131" t="inlineStr">
         <is>
-          <t>오윤경
+          <t xml:space="preserve">오윤경
 주간-
-5EV4G018 7F GAS 11/16 도면작업 (100%)
-연장-없음
-•</t>
+5ELEF802 5F DR 12/22 도면작업 (100%),
+5ESPF804 7F PCW 12/22 도면업데이트 (100%),
+5EV4G003 6F GAS,PCW 12/22 도면업데이트 (100%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E36" s="132" t="n"/>
@@ -6378,9 +6378,10 @@
         <is>
           <t>남지은
 주간-사무업무 및 바인더정리,
-5EV4G018 5F VAC 11/16 도면작업 (100%),
-5EV4G018 6F GAS,PCW 11/17 도면작업 (100%)
-연장-없음</t>
+5EV4G003 6F GAS,PCW 12/21 도면업데이트 (100%),
+5EV4G017 5F BYP 12/22 도면업데이트 (100%),
+5EV4G014 5F EXH 12/22 도면업데이트 (50%)
+야간-없음</t>
         </is>
       </c>
       <c r="E37" s="132" t="n"/>
@@ -6413,11 +6414,9 @@
         <is>
           <t>문진영
 주간-
-6DHQC242 10F EXH 배관사 대응 및 업데이트
-6DSAF201 8F BYP, EXH 업데이트 11/17(100%)
-6DTNC309 10F GAS, TOXIC, PCW, EXH, VAC 업데이트 11/17(100%)
-연장-없음
-•</t>
+6IRF811, 6IRTF812 자체 QC 진행
+6IRNB815 10F EXH, VAC 배관사 대응
+6DSAF202 8F SCR</t>
         </is>
       </c>
       <c r="E38" s="132" t="n"/>
@@ -6444,12 +6443,12 @@
       </c>
       <c r="D39" s="131" t="inlineStr">
         <is>
-          <t>김도일
+          <t xml:space="preserve">김도일
 주간-
-6DHFA203 3차 배관 설계 11/17(100%)
-조윤태 과장 설계 교육
-연장-없음
-•</t>
+6DHFC801 10F PCW 설계 12/21(100%)
+6DHFC801 9F EXH 설계 12/22(50%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E39" s="132" t="n"/>
@@ -6475,13 +6474,13 @@
       </c>
       <c r="D40" s="131" t="inlineStr">
         <is>
-          <t>김범석
+          <t xml:space="preserve">김범석
 주간-
-PH2 제도사 작업 물량 조사
-24년 7월까지 월별 예상 기성금 산출
-RDTN2701 자체 QC 검증 간섭 구간 수정 작업
-연장-없음
-•</t>
+6DSAF202 8F SCR 2차 TRAY 간섭 관련 P&amp;S, 시공팀 현장 미팅 진행
+6ISEB811 PM2 Foreline NDU Door Open 간섭 관련 위치 이동 검토
+6ISEB809 9F CHILLER Layout 변경 Rev.설계 12/22(100%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E40" s="132" t="n"/>
@@ -6507,11 +6506,13 @@
       </c>
       <c r="D41" s="131" t="inlineStr">
         <is>
-          <t>홍지훈
+          <t xml:space="preserve">홍지훈
 주간- 
-연차
-연장-없음
-•</t>
+6DFPC209 10F 도면 확인
+6DHQC122 10F 도면 확인
+6DFPC209 8F GAS, PCW 설계 12/21(100%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E41" s="132" t="n"/>
@@ -6537,11 +6538,11 @@
       </c>
       <c r="D42" s="131" t="inlineStr">
         <is>
-          <t>노경은(외주)
+          <t xml:space="preserve">노경은(외주)
 주간- 
-RDTN2701 10F PCW 도면 업데이트 11/17(50%)
-연장-없음
-•</t>
+RDSP2801 8F GAS, PCW, BYP 도면 업데이트 12/22(100%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E42" s="132" t="n"/>
@@ -6565,11 +6566,12 @@
       </c>
       <c r="D43" s="131" t="inlineStr">
         <is>
-          <t>임안나(외주)
+          <t xml:space="preserve">임안나(외주)
 주간- 
-6ILAB503 10F PCW 도면 작업 연습 11/16(100%)
-연장-없음
-•</t>
+6DBNC523 9F GAS, PCW 도면 작업 12/21(100%)
+6DBNC523 9F 3차 GAS 도면 작업 12/22(100%)
+야간-없음
+</t>
         </is>
       </c>
       <c r="E43" s="132" t="n"/>
@@ -6595,11 +6597,11 @@
       </c>
       <c r="D44" s="131" t="inlineStr">
         <is>
-          <t>이효정(외주)
+          <t xml:space="preserve">이효정(외주)
 주간- 
-6ILAB503 10F PCW 도면 작업 연습 11/16(100%)
-연장-없음
-•</t>
+6DFPC202 8F GAS, PCW 도면 작업 12/22(100%) 
+야간-없음
+</t>
         </is>
       </c>
       <c r="E44" s="132" t="n"/>
@@ -6624,12 +6626,11 @@
       </c>
       <c r="D45" s="131" t="inlineStr">
         <is>
-          <t>김도일
-주간-
-6DHFA203 3차 배관 설계 11/17(100%)
-조윤태 과장 설계 교육
-연장-없음
-•</t>
+          <t>조윤태(외주)
+주간- 
+6DSAF318 Asbuilt 자체 QC &amp; 정보추출 &amp; BOM &amp; Toolset 추출 작업
+야간-없음
+이상입니다</t>
         </is>
       </c>
       <c r="E45" s="132" t="n"/>
@@ -6873,8 +6874,8 @@
     <col hidden="1" width="8.625" customWidth="1" style="179" min="6" max="6"/>
     <col width="8.25" customWidth="1" style="179" min="7" max="7"/>
     <col width="51.25" customWidth="1" style="179" min="8" max="9"/>
-    <col width="8.625" customWidth="1" style="179" min="10" max="12"/>
-    <col width="8.625" customWidth="1" style="179" min="13" max="16384"/>
+    <col width="8.625" customWidth="1" style="179" min="10" max="38"/>
+    <col width="8.625" customWidth="1" style="179" min="39" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="57" customHeight="1" s="130">
@@ -7332,8 +7333,8 @@
     <col hidden="1" width="9" customWidth="1" style="184" min="18" max="18"/>
     <col width="9" customWidth="1" style="184" min="19" max="22"/>
     <col hidden="1" width="9" customWidth="1" style="184" min="23" max="91"/>
-    <col width="9" customWidth="1" style="184" min="92" max="94"/>
-    <col width="9" customWidth="1" style="184" min="95" max="16384"/>
+    <col width="9" customWidth="1" style="184" min="92" max="120"/>
+    <col width="9" customWidth="1" style="184" min="121" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" s="130">
@@ -17744,8 +17745,8 @@
     <col width="13.375" customWidth="1" style="12" min="6" max="7"/>
     <col hidden="1" width="9" customWidth="1" style="12" min="8" max="9"/>
     <col hidden="1" width="16.625" customWidth="1" style="84" min="10" max="10"/>
-    <col width="9" customWidth="1" style="11" min="11" max="13"/>
-    <col width="9" customWidth="1" style="11" min="14" max="16384"/>
+    <col width="9" customWidth="1" style="11" min="11" max="39"/>
+    <col width="9" customWidth="1" style="11" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" s="130">
